--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H2">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I2">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J2">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N2">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O2">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P2">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q2">
-        <v>141.5917842139017</v>
+        <v>75.11567321848401</v>
       </c>
       <c r="R2">
-        <v>1274.326057925115</v>
+        <v>676.041058966356</v>
       </c>
       <c r="S2">
-        <v>0.0002920887365350499</v>
+        <v>0.0001432610701536984</v>
       </c>
       <c r="T2">
-        <v>0.0002920887365350498</v>
+        <v>0.0001432610701536984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H3">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I3">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J3">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>213.10321</v>
       </c>
       <c r="O3">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P3">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q3">
-        <v>1536.450300218615</v>
+        <v>1607.435524066707</v>
       </c>
       <c r="R3">
-        <v>13828.05270196753</v>
+        <v>14466.91971660036</v>
       </c>
       <c r="S3">
-        <v>0.003169532960060627</v>
+        <v>0.003065710836552828</v>
       </c>
       <c r="T3">
-        <v>0.003169532960060625</v>
+        <v>0.003065710836552828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H4">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I4">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J4">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N4">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O4">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P4">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q4">
-        <v>388.578195898529</v>
+        <v>601.4259084365494</v>
       </c>
       <c r="R4">
-        <v>3497.203763086761</v>
+        <v>5412.833175928944</v>
       </c>
       <c r="S4">
-        <v>0.0008015953391307497</v>
+        <v>0.001147043161154527</v>
       </c>
       <c r="T4">
-        <v>0.0008015953391307495</v>
+        <v>0.001147043161154527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H5">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I5">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J5">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N5">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O5">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P5">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q5">
-        <v>6.636961562249779</v>
+        <v>8.764555376161335</v>
       </c>
       <c r="R5">
-        <v>59.732654060248</v>
+        <v>78.880998385452</v>
       </c>
       <c r="S5">
-        <v>1.369134323655833E-05</v>
+        <v>1.671581347554572E-05</v>
       </c>
       <c r="T5">
-        <v>1.369134323655832E-05</v>
+        <v>1.671581347554572E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I6">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J6">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N6">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O6">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P6">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q6">
-        <v>32515.01703086809</v>
+        <v>16487.75213930923</v>
       </c>
       <c r="R6">
-        <v>292635.1532778128</v>
+        <v>148389.769253783</v>
       </c>
       <c r="S6">
-        <v>0.06707500930007655</v>
+        <v>0.03144554145226153</v>
       </c>
       <c r="T6">
-        <v>0.06707500930007654</v>
+        <v>0.03144554145226153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I7">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J7">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>213.10321</v>
       </c>
       <c r="O7">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P7">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q7">
         <v>352829.1415780162</v>
@@ -883,10 +883,10 @@
         <v>3175462.274202146</v>
       </c>
       <c r="S7">
-        <v>0.7278488561213474</v>
+        <v>0.6729178910086523</v>
       </c>
       <c r="T7">
-        <v>0.7278488561213473</v>
+        <v>0.6729178910086524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I8">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J8">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N8">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O8">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P8">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q8">
-        <v>89232.76677111171</v>
+        <v>132011.8809242144</v>
       </c>
       <c r="R8">
-        <v>803094.9009400054</v>
+        <v>1188106.92831793</v>
       </c>
       <c r="S8">
-        <v>0.1840776726446662</v>
+        <v>0.251773864546178</v>
       </c>
       <c r="T8">
-        <v>0.1840776726446661</v>
+        <v>0.251773864546178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I9">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J9">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N9">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O9">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P9">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q9">
-        <v>1524.106214409725</v>
+        <v>1923.803787700576</v>
       </c>
       <c r="R9">
-        <v>13716.95592968753</v>
+        <v>17314.23408930518</v>
       </c>
       <c r="S9">
-        <v>0.003144068428713583</v>
+        <v>0.003669090318741939</v>
       </c>
       <c r="T9">
-        <v>0.003144068428713582</v>
+        <v>0.00366909031874194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H10">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I10">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J10">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N10">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O10">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P10">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q10">
-        <v>434.7725641782517</v>
+        <v>606.2379327360113</v>
       </c>
       <c r="R10">
-        <v>3912.953077604266</v>
+        <v>5456.141394624102</v>
       </c>
       <c r="S10">
-        <v>0.000896889389846824</v>
+        <v>0.001156220683250899</v>
       </c>
       <c r="T10">
-        <v>0.0008968893898468239</v>
+        <v>0.001156220683250899</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H11">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I11">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J11">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>213.10321</v>
       </c>
       <c r="O11">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P11">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q11">
-        <v>4717.833315450983</v>
+        <v>12973.16987737296</v>
       </c>
       <c r="R11">
-        <v>42460.49983905884</v>
+        <v>116758.5288963566</v>
       </c>
       <c r="S11">
-        <v>0.009732386521885119</v>
+        <v>0.02474250872400932</v>
       </c>
       <c r="T11">
-        <v>0.009732386521885118</v>
+        <v>0.02474250872400932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H12">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I12">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J12">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N12">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O12">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P12">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q12">
-        <v>1193.170490452619</v>
+        <v>4853.943042804694</v>
       </c>
       <c r="R12">
-        <v>10738.53441407357</v>
+        <v>43685.48738524225</v>
       </c>
       <c r="S12">
-        <v>0.00246138335611844</v>
+        <v>0.009257469779372016</v>
       </c>
       <c r="T12">
-        <v>0.00246138335611844</v>
+        <v>0.009257469779372016</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H13">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I13">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J13">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N13">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O13">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P13">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q13">
-        <v>20.37949315203645</v>
+        <v>70.73631513811489</v>
       </c>
       <c r="R13">
-        <v>183.415438368328</v>
+        <v>636.6268362430341</v>
       </c>
       <c r="S13">
-        <v>4.204071895167623E-05</v>
+        <v>0.000134908731709562</v>
       </c>
       <c r="T13">
-        <v>4.204071895167622E-05</v>
+        <v>0.000134908731709562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H14">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I14">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J14">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.546185</v>
+        <v>3.319447</v>
       </c>
       <c r="N14">
-        <v>19.638555</v>
+        <v>9.958341000000001</v>
       </c>
       <c r="O14">
-        <v>0.06829436374455893</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="P14">
-        <v>0.06829436374455891</v>
+        <v>0.03276237985858125</v>
       </c>
       <c r="Q14">
-        <v>14.72510418826833</v>
+        <v>9.100564913694667</v>
       </c>
       <c r="R14">
-        <v>132.525937694415</v>
+        <v>81.905084223252</v>
       </c>
       <c r="S14">
-        <v>3.037631810049602E-05</v>
+        <v>1.735665291512394E-05</v>
       </c>
       <c r="T14">
-        <v>3.037631810049602E-05</v>
+        <v>1.735665291512394E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H15">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I15">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J15">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>213.10321</v>
       </c>
       <c r="O15">
-        <v>0.7410803971510699</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="P15">
-        <v>0.7410803971510697</v>
+        <v>0.7010975337260504</v>
       </c>
       <c r="Q15">
-        <v>159.7860417991256</v>
+        <v>194.7472571909022</v>
       </c>
       <c r="R15">
-        <v>1438.07437619213</v>
+        <v>1752.72531471812</v>
       </c>
       <c r="S15">
-        <v>0.0003296215477766468</v>
+        <v>0.0003714231568359399</v>
       </c>
       <c r="T15">
-        <v>0.0003296215477766467</v>
+        <v>0.0003714231568359399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H16">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I16">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J16">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.965059</v>
+        <v>26.57769466666667</v>
       </c>
       <c r="N16">
-        <v>53.895177</v>
+        <v>79.73308400000001</v>
       </c>
       <c r="O16">
-        <v>0.1874240147564516</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="P16">
-        <v>0.1874240147564515</v>
+        <v>0.262317346363633</v>
       </c>
       <c r="Q16">
-        <v>40.410921097309</v>
+        <v>72.86515963964979</v>
       </c>
       <c r="R16">
-        <v>363.698289875781</v>
+        <v>655.786436756848</v>
       </c>
       <c r="S16">
-        <v>8.336341653622361E-05</v>
+        <v>0.0001389688769284384</v>
       </c>
       <c r="T16">
-        <v>8.33634165362236E-05</v>
+        <v>0.0001389688769284384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H17">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I17">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J17">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3068453333333334</v>
+        <v>0.3873156666666667</v>
       </c>
       <c r="N17">
-        <v>0.920536</v>
+        <v>1.161947</v>
       </c>
       <c r="O17">
-        <v>0.003201224347919758</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="P17">
-        <v>0.003201224347919757</v>
+        <v>0.003822740051735415</v>
       </c>
       <c r="Q17">
-        <v>0.6902233137342222</v>
+        <v>1.061861016787111</v>
       </c>
       <c r="R17">
-        <v>6.212009823608001</v>
+        <v>9.556749151084</v>
       </c>
       <c r="S17">
-        <v>1.423857017940383E-06</v>
+        <v>2.025187808367831E-06</v>
       </c>
       <c r="T17">
-        <v>1.423857017940383E-06</v>
+        <v>2.025187808367832E-06</v>
       </c>
     </row>
   </sheetData>
